--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>GAME</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,91 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12300</v>
+        <v>15000</v>
       </c>
       <c r="E8" s="3">
-        <v>20400</v>
+        <v>12200</v>
       </c>
       <c r="F8" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="G8" s="3">
-        <v>9200</v>
-      </c>
       <c r="H8" s="3">
-        <v>3600</v>
+        <v>8900</v>
       </c>
       <c r="I8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,23 +762,26 @@
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>-4100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,23 +794,26 @@
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3">
-        <v>13300</v>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H10" s="3">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="I10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J10" s="3">
         <v>-1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,26 +887,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="E14" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -897,39 +917,45 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1800</v>
       </c>
-      <c r="G15" s="3">
-        <v>2200</v>
-      </c>
       <c r="H15" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
       <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18400</v>
+        <v>36100</v>
       </c>
       <c r="E17" s="3">
-        <v>52500</v>
+        <v>18300</v>
       </c>
       <c r="F17" s="3">
-        <v>20800</v>
+        <v>52200</v>
       </c>
       <c r="G17" s="3">
-        <v>23300</v>
+        <v>20600</v>
       </c>
       <c r="H17" s="3">
-        <v>10100</v>
+        <v>21100</v>
       </c>
       <c r="I17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-32100</v>
-      </c>
       <c r="F18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-14000</v>
-      </c>
       <c r="H18" s="3">
-        <v>-6500</v>
+        <v>-12200</v>
       </c>
       <c r="I18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14300</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
-        <v>-7400</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
-        <v>1100</v>
-      </c>
       <c r="H20" s="3">
-        <v>-8500</v>
+        <v>1600</v>
       </c>
       <c r="I20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9500</v>
+        <v>-15800</v>
       </c>
       <c r="E21" s="3">
-        <v>-35500</v>
+        <v>9400</v>
       </c>
       <c r="F21" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-10700</v>
-      </c>
       <c r="H21" s="3">
-        <v>-13800</v>
+        <v>-8400</v>
       </c>
       <c r="I21" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1076,57 +1116,63 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8000</v>
+        <v>-17300</v>
       </c>
       <c r="E23" s="3">
-        <v>-40800</v>
+        <v>7900</v>
       </c>
       <c r="F23" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-15000</v>
+        <v>-11000</v>
       </c>
       <c r="I23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,10 +1198,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8000</v>
+        <v>-17300</v>
       </c>
       <c r="E26" s="3">
-        <v>-40800</v>
+        <v>7900</v>
       </c>
       <c r="F26" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-15000</v>
+        <v>-11000</v>
       </c>
       <c r="I26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8000</v>
+        <v>-17300</v>
       </c>
       <c r="E27" s="3">
-        <v>-40700</v>
+        <v>7900</v>
       </c>
       <c r="F27" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-5600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-15000</v>
+        <v>-11000</v>
       </c>
       <c r="I27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1279,28 +1340,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>-2100</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="I29" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14300</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
-        <v>7400</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H32" s="3">
-        <v>8500</v>
+        <v>-1600</v>
       </c>
       <c r="I32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E33" s="3">
         <v>7900</v>
       </c>
-      <c r="E33" s="3">
-        <v>-42800</v>
-      </c>
       <c r="F33" s="3">
-        <v>-7700</v>
+        <v>-42500</v>
       </c>
       <c r="G33" s="3">
-        <v>-12900</v>
+        <v>-7600</v>
       </c>
       <c r="H33" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="I33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E35" s="3">
         <v>7900</v>
       </c>
-      <c r="E35" s="3">
-        <v>-42800</v>
-      </c>
       <c r="F35" s="3">
-        <v>-7700</v>
+        <v>-42500</v>
       </c>
       <c r="G35" s="3">
-        <v>-12900</v>
+        <v>-7600</v>
       </c>
       <c r="H35" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="I35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27300</v>
+        <v>19500</v>
       </c>
       <c r="E41" s="3">
-        <v>29200</v>
+        <v>27200</v>
       </c>
       <c r="F41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11400</v>
+        <v>12400</v>
       </c>
       <c r="E43" s="3">
-        <v>7700</v>
+        <v>11300</v>
       </c>
       <c r="F43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G43" s="3">
         <v>8000</v>
       </c>
-      <c r="G43" s="3">
-        <v>6400</v>
-      </c>
       <c r="H43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I43" s="3">
         <v>9100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,106 +1745,118 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
-        <v>4200</v>
-      </c>
       <c r="F45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G45" s="3">
         <v>2200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2500</v>
       </c>
       <c r="H45" s="3">
         <v>2500</v>
       </c>
       <c r="I45" s="3">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
       </c>
       <c r="K45" s="3">
+        <v>800</v>
+      </c>
+      <c r="L45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44000</v>
+        <v>40200</v>
       </c>
       <c r="E46" s="3">
-        <v>41000</v>
+        <v>43700</v>
       </c>
       <c r="F46" s="3">
-        <v>13700</v>
+        <v>40700</v>
       </c>
       <c r="G46" s="3">
-        <v>15600</v>
+        <v>13600</v>
       </c>
       <c r="H46" s="3">
-        <v>14700</v>
+        <v>15500</v>
       </c>
       <c r="I46" s="3">
-        <v>2900</v>
+        <v>14600</v>
       </c>
       <c r="J46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="E47" s="3">
         <v>2600</v>
       </c>
       <c r="F47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G47" s="3">
         <v>2500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1200</v>
@@ -1760,42 +1868,48 @@
         <v>1200</v>
       </c>
       <c r="J48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40400</v>
+        <v>39500</v>
       </c>
       <c r="E49" s="3">
-        <v>41500</v>
+        <v>40100</v>
       </c>
       <c r="F49" s="3">
-        <v>43300</v>
+        <v>41200</v>
       </c>
       <c r="G49" s="3">
-        <v>49000</v>
+        <v>43000</v>
       </c>
       <c r="H49" s="3">
-        <v>47400</v>
+        <v>48700</v>
       </c>
       <c r="I49" s="3">
-        <v>10600</v>
+        <v>47100</v>
       </c>
       <c r="J49" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +1969,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>3400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -1878,11 +1998,14 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>91500</v>
+        <v>85900</v>
       </c>
       <c r="E54" s="3">
-        <v>90200</v>
+        <v>90900</v>
       </c>
       <c r="F54" s="3">
-        <v>60700</v>
+        <v>89600</v>
       </c>
       <c r="G54" s="3">
-        <v>68500</v>
+        <v>60300</v>
       </c>
       <c r="H54" s="3">
-        <v>66600</v>
+        <v>68000</v>
       </c>
       <c r="I54" s="3">
-        <v>16200</v>
+        <v>66100</v>
       </c>
       <c r="J54" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K54" s="3">
         <v>11000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,153 +2095,169 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21000</v>
+        <v>13300</v>
       </c>
       <c r="E57" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="F57" s="3">
-        <v>22300</v>
+        <v>20100</v>
       </c>
       <c r="G57" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="H57" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="I57" s="3">
-        <v>9200</v>
+        <v>20800</v>
       </c>
       <c r="J57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9300</v>
       </c>
-      <c r="G58" s="3">
-        <v>11600</v>
-      </c>
       <c r="H58" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I58" s="3">
         <v>11200</v>
       </c>
-      <c r="I58" s="3">
-        <v>5500</v>
-      </c>
       <c r="J58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28500</v>
+        <v>25500</v>
       </c>
       <c r="E59" s="3">
-        <v>42400</v>
+        <v>28300</v>
       </c>
       <c r="F59" s="3">
-        <v>14400</v>
+        <v>42100</v>
       </c>
       <c r="G59" s="3">
-        <v>20100</v>
+        <v>14300</v>
       </c>
       <c r="H59" s="3">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="I59" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51000</v>
+        <v>41400</v>
       </c>
       <c r="E60" s="3">
-        <v>64700</v>
+        <v>50600</v>
       </c>
       <c r="F60" s="3">
-        <v>46100</v>
+        <v>64300</v>
       </c>
       <c r="G60" s="3">
-        <v>53700</v>
+        <v>45700</v>
       </c>
       <c r="H60" s="3">
-        <v>51200</v>
+        <v>53300</v>
       </c>
       <c r="I60" s="3">
-        <v>20300</v>
+        <v>50800</v>
       </c>
       <c r="J60" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K60" s="3">
         <v>14700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>18600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H61" s="3">
         <v>14400</v>
       </c>
-      <c r="E61" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>21400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>14500</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2124,23 +2270,26 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65500</v>
+        <v>53600</v>
       </c>
       <c r="E66" s="3">
-        <v>83700</v>
+        <v>65100</v>
       </c>
       <c r="F66" s="3">
-        <v>67700</v>
+        <v>83100</v>
       </c>
       <c r="G66" s="3">
-        <v>68500</v>
+        <v>67200</v>
       </c>
       <c r="H66" s="3">
-        <v>55100</v>
+        <v>68000</v>
       </c>
       <c r="I66" s="3">
-        <v>32700</v>
+        <v>54700</v>
       </c>
       <c r="J66" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K66" s="3">
         <v>31400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-127300</v>
+        <v>-143700</v>
       </c>
       <c r="E72" s="3">
-        <v>-135300</v>
+        <v>-126500</v>
       </c>
       <c r="F72" s="3">
-        <v>-100200</v>
+        <v>-134400</v>
       </c>
       <c r="G72" s="3">
-        <v>-92500</v>
+        <v>-99500</v>
       </c>
       <c r="H72" s="3">
-        <v>-79600</v>
+        <v>-91800</v>
       </c>
       <c r="I72" s="3">
-        <v>-64500</v>
+        <v>-79000</v>
       </c>
       <c r="J72" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-61300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26000</v>
+        <v>32400</v>
       </c>
       <c r="E76" s="3">
-        <v>6600</v>
+        <v>25800</v>
       </c>
       <c r="F76" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11400</v>
       </c>
-      <c r="I76" s="3">
-        <v>-16500</v>
-      </c>
       <c r="J76" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-20400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E81" s="3">
         <v>7900</v>
       </c>
-      <c r="E81" s="3">
-        <v>-42800</v>
-      </c>
       <c r="F81" s="3">
-        <v>-7700</v>
+        <v>-42500</v>
       </c>
       <c r="G81" s="3">
-        <v>-12900</v>
+        <v>-7600</v>
       </c>
       <c r="H81" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="I81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
       </c>
       <c r="K83" s="3">
+        <v>800</v>
+      </c>
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2817,28 +3034,31 @@
         <v>-9200</v>
       </c>
       <c r="E89" s="3">
-        <v>-20400</v>
+        <v>-9100</v>
       </c>
       <c r="F89" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,16 +3070,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -2868,19 +3089,22 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
-        <v>1200</v>
-      </c>
       <c r="I94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,51 +3338,57 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>6600</v>
       </c>
-      <c r="E100" s="3">
-        <v>42900</v>
-      </c>
       <c r="F100" s="3">
-        <v>3900</v>
+        <v>42600</v>
       </c>
       <c r="G100" s="3">
-        <v>9900</v>
+        <v>3800</v>
       </c>
       <c r="H100" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
-        <v>22500</v>
-      </c>
       <c r="F102" s="3">
+        <v>22300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>GAME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,97 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E8" s="3">
         <v>15000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,23 +771,26 @@
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>-4100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,23 +806,26 @@
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>13000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,29 +906,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12900</v>
+        <v>-3500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -920,42 +939,48 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1800</v>
       </c>
       <c r="H15" s="3">
         <v>1800</v>
       </c>
       <c r="I15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J15" s="3">
         <v>1100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
       </c>
       <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E17" s="3">
         <v>36100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1075,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1119,65 +1158,71 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1201,10 +1246,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-40400</v>
-      </c>
       <c r="G27" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,28 +1403,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>-2100</v>
       </c>
       <c r="H29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17200</v>
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F33" s="3">
         <v>7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17200</v>
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F35" s="3">
         <v>7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
         <v>19500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1773,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E43" s="3">
         <v>12400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,118 +1843,130 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2500</v>
       </c>
       <c r="I45" s="3">
         <v>2500</v>
       </c>
       <c r="J45" s="3">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="K45" s="3">
         <v>800</v>
       </c>
       <c r="L45" s="3">
+        <v>800</v>
+      </c>
+      <c r="M45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E46" s="3">
         <v>40200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>43700</v>
       </c>
-      <c r="F46" s="3">
-        <v>40700</v>
-      </c>
       <c r="G46" s="3">
+        <v>40800</v>
+      </c>
+      <c r="H46" s="3">
         <v>13600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E47" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="F47" s="3">
         <v>2600</v>
       </c>
       <c r="G47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H47" s="3">
         <v>2500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
@@ -1871,45 +1978,51 @@
         <v>1200</v>
       </c>
       <c r="K48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E49" s="3">
         <v>39500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>40100</v>
       </c>
-      <c r="F49" s="3">
-        <v>41200</v>
-      </c>
       <c r="G49" s="3">
+        <v>41300</v>
+      </c>
+      <c r="H49" s="3">
         <v>43000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>48700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>47100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2088,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2001,11 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85900</v>
+        <v>77900</v>
       </c>
       <c r="E54" s="3">
+        <v>86000</v>
+      </c>
+      <c r="F54" s="3">
         <v>90900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89600</v>
       </c>
-      <c r="G54" s="3">
-        <v>60300</v>
-      </c>
       <c r="H54" s="3">
-        <v>68000</v>
+        <v>60400</v>
       </c>
       <c r="I54" s="3">
+        <v>68100</v>
+      </c>
+      <c r="J54" s="3">
         <v>66100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,168 +2225,184 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E57" s="3">
         <v>13300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21800</v>
       </c>
-      <c r="I57" s="3">
-        <v>20800</v>
-      </c>
       <c r="J57" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E59" s="3">
         <v>25500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E60" s="3">
         <v>41400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64300</v>
       </c>
-      <c r="G60" s="3">
-        <v>45700</v>
-      </c>
       <c r="H60" s="3">
+        <v>45800</v>
+      </c>
+      <c r="I60" s="3">
         <v>53300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E61" s="3">
         <v>12000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2273,23 +2418,26 @@
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E66" s="3">
         <v>53600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>65100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68000</v>
       </c>
-      <c r="I66" s="3">
-        <v>54700</v>
-      </c>
       <c r="J66" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K66" s="3">
         <v>32500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-143700</v>
+        <v>-145500</v>
       </c>
       <c r="E72" s="3">
+        <v>-143800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-126500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99500</v>
       </c>
-      <c r="H72" s="3">
-        <v>-91800</v>
-      </c>
       <c r="I72" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-79000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-64100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E76" s="3">
         <v>32400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-20400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17200</v>
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F81" s="3">
         <v>7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>800</v>
       </c>
       <c r="K83" s="3">
         <v>800</v>
       </c>
       <c r="L83" s="3">
+        <v>800</v>
+      </c>
+      <c r="M83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,19 +3290,20 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3092,19 +3312,22 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,57 +3583,63 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6600</v>
       </c>
-      <c r="F100" s="3">
-        <v>42600</v>
-      </c>
       <c r="G100" s="3">
+        <v>42700</v>
+      </c>
+      <c r="H100" s="3">
         <v>3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
@@ -3405,36 +3653,42 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>GAME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18200</v>
+        <v>12100</v>
       </c>
       <c r="E8" s="3">
-        <v>15000</v>
+        <v>15900</v>
       </c>
       <c r="F8" s="3">
-        <v>12200</v>
+        <v>15400</v>
       </c>
       <c r="G8" s="3">
-        <v>20300</v>
+        <v>12500</v>
       </c>
       <c r="H8" s="3">
-        <v>9600</v>
+        <v>20700</v>
       </c>
       <c r="I8" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="J8" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,23 +781,26 @@
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
-        <v>-4100</v>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,23 +819,26 @@
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
-        <v>13000</v>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,31 +926,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3500</v>
+        <v>-1100</v>
       </c>
       <c r="E14" s="3">
-        <v>13200</v>
+        <v>-3600</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4700</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -942,45 +962,51 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1800</v>
       </c>
       <c r="I15" s="3">
         <v>1800</v>
       </c>
       <c r="J15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K15" s="3">
         <v>1100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>800</v>
       </c>
       <c r="M15" s="3">
+        <v>800</v>
+      </c>
+      <c r="N15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="E17" s="3">
-        <v>36100</v>
+        <v>21700</v>
       </c>
       <c r="F17" s="3">
-        <v>18300</v>
+        <v>37000</v>
       </c>
       <c r="G17" s="3">
-        <v>52200</v>
+        <v>18700</v>
       </c>
       <c r="H17" s="3">
-        <v>20600</v>
+        <v>53400</v>
       </c>
       <c r="I17" s="3">
         <v>21100</v>
       </c>
       <c r="J17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5000</v>
+        <v>-10900</v>
       </c>
       <c r="E18" s="3">
-        <v>-21100</v>
+        <v>-5800</v>
       </c>
       <c r="F18" s="3">
-        <v>-6100</v>
+        <v>-21600</v>
       </c>
       <c r="G18" s="3">
-        <v>-31900</v>
+        <v>-6200</v>
       </c>
       <c r="H18" s="3">
-        <v>-11100</v>
+        <v>-32700</v>
       </c>
       <c r="I18" s="3">
-        <v>-12200</v>
+        <v>-11300</v>
       </c>
       <c r="J18" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>14200</v>
+        <v>4200</v>
       </c>
       <c r="G20" s="3">
-        <v>-7300</v>
+        <v>14600</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
+        <v>-7500</v>
       </c>
       <c r="I20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>-8300</v>
       </c>
       <c r="E21" s="3">
-        <v>-15800</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
-        <v>9400</v>
+        <v>-16200</v>
       </c>
       <c r="G21" s="3">
-        <v>-35300</v>
+        <v>9700</v>
       </c>
       <c r="H21" s="3">
-        <v>-3000</v>
+        <v>-36100</v>
       </c>
       <c r="I21" s="3">
-        <v>-8400</v>
+        <v>-3100</v>
       </c>
       <c r="J21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1161,68 +1201,74 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1700</v>
+        <v>-10000</v>
       </c>
       <c r="E23" s="3">
-        <v>-17300</v>
+        <v>-2300</v>
       </c>
       <c r="F23" s="3">
-        <v>7900</v>
+        <v>-17700</v>
       </c>
       <c r="G23" s="3">
-        <v>-40500</v>
+        <v>8100</v>
       </c>
       <c r="H23" s="3">
-        <v>-5600</v>
+        <v>-41500</v>
       </c>
       <c r="I23" s="3">
-        <v>-11000</v>
+        <v>-5700</v>
       </c>
       <c r="J23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1249,10 +1295,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1700</v>
+        <v>-10000</v>
       </c>
       <c r="E26" s="3">
-        <v>-17300</v>
+        <v>-2300</v>
       </c>
       <c r="F26" s="3">
-        <v>7900</v>
+        <v>-17700</v>
       </c>
       <c r="G26" s="3">
-        <v>-40500</v>
+        <v>8100</v>
       </c>
       <c r="H26" s="3">
-        <v>-5600</v>
+        <v>-41500</v>
       </c>
       <c r="I26" s="3">
-        <v>-11000</v>
+        <v>-5700</v>
       </c>
       <c r="J26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1700</v>
+        <v>-10000</v>
       </c>
       <c r="E27" s="3">
-        <v>-17300</v>
+        <v>-2400</v>
       </c>
       <c r="F27" s="3">
-        <v>7900</v>
+        <v>-17700</v>
       </c>
       <c r="G27" s="3">
-        <v>-40500</v>
+        <v>8100</v>
       </c>
       <c r="H27" s="3">
-        <v>-5600</v>
+        <v>-41400</v>
       </c>
       <c r="I27" s="3">
-        <v>-11000</v>
+        <v>-5700</v>
       </c>
       <c r="J27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,43 +1449,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>-2100</v>
       </c>
       <c r="I29" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-4100</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>-14200</v>
+        <v>-4200</v>
       </c>
       <c r="G32" s="3">
-        <v>7300</v>
+        <v>-14600</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
+        <v>7500</v>
       </c>
       <c r="I32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1700</v>
+        <v>-8800</v>
       </c>
       <c r="E33" s="3">
-        <v>-17300</v>
+        <v>-1800</v>
       </c>
       <c r="F33" s="3">
-        <v>7900</v>
+        <v>-17700</v>
       </c>
       <c r="G33" s="3">
-        <v>-42500</v>
+        <v>8100</v>
       </c>
       <c r="H33" s="3">
-        <v>-7600</v>
+        <v>-43500</v>
       </c>
       <c r="I33" s="3">
-        <v>-12800</v>
+        <v>-7800</v>
       </c>
       <c r="J33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1700</v>
+        <v>-8800</v>
       </c>
       <c r="E35" s="3">
-        <v>-17300</v>
+        <v>-1800</v>
       </c>
       <c r="F35" s="3">
-        <v>7900</v>
+        <v>-17700</v>
       </c>
       <c r="G35" s="3">
-        <v>-42500</v>
+        <v>8100</v>
       </c>
       <c r="H35" s="3">
-        <v>-7600</v>
+        <v>-43500</v>
       </c>
       <c r="I35" s="3">
-        <v>-12800</v>
+        <v>-7800</v>
       </c>
       <c r="J35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12300</v>
+        <v>7000</v>
       </c>
       <c r="E41" s="3">
-        <v>19500</v>
+        <v>12600</v>
       </c>
       <c r="F41" s="3">
-        <v>27200</v>
+        <v>20000</v>
       </c>
       <c r="G41" s="3">
-        <v>29000</v>
+        <v>27800</v>
       </c>
       <c r="H41" s="3">
-        <v>3500</v>
+        <v>29700</v>
       </c>
       <c r="I41" s="3">
-        <v>6700</v>
+        <v>3600</v>
       </c>
       <c r="J41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,43 +1866,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14300</v>
+        <v>12000</v>
       </c>
       <c r="E43" s="3">
-        <v>12400</v>
+        <v>14700</v>
       </c>
       <c r="F43" s="3">
-        <v>11300</v>
+        <v>12700</v>
       </c>
       <c r="G43" s="3">
-        <v>7600</v>
+        <v>11600</v>
       </c>
       <c r="H43" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I43" s="3">
-        <v>6300</v>
+        <v>8100</v>
       </c>
       <c r="J43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,78 +1942,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7800</v>
+        <v>10200</v>
       </c>
       <c r="E45" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>5300</v>
+        <v>8500</v>
       </c>
       <c r="G45" s="3">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="H45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>800</v>
       </c>
       <c r="M45" s="3">
+        <v>800</v>
+      </c>
+      <c r="N45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>34500</v>
+        <v>29200</v>
       </c>
       <c r="E46" s="3">
-        <v>40200</v>
+        <v>35300</v>
       </c>
       <c r="F46" s="3">
-        <v>43700</v>
+        <v>41200</v>
       </c>
       <c r="G46" s="3">
-        <v>40800</v>
+        <v>44800</v>
       </c>
       <c r="H46" s="3">
-        <v>13600</v>
+        <v>41700</v>
       </c>
       <c r="I46" s="3">
-        <v>15500</v>
+        <v>13900</v>
       </c>
       <c r="J46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K46" s="3">
         <v>14600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,101 +2033,110 @@
         <v>3400</v>
       </c>
       <c r="F47" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="G47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H47" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="I47" s="3">
         <v>2600</v>
       </c>
       <c r="J47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
-        <v>1200</v>
-      </c>
       <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1200</v>
       </c>
       <c r="I48" s="3">
         <v>1200</v>
       </c>
       <c r="J48" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
       </c>
       <c r="L48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38200</v>
+        <v>36900</v>
       </c>
       <c r="E49" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="F49" s="3">
-        <v>40100</v>
+        <v>40400</v>
       </c>
       <c r="G49" s="3">
-        <v>41300</v>
+        <v>41100</v>
       </c>
       <c r="H49" s="3">
-        <v>43000</v>
+        <v>42200</v>
       </c>
       <c r="I49" s="3">
-        <v>48700</v>
+        <v>44100</v>
       </c>
       <c r="J49" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K49" s="3">
         <v>47100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2100,16 +2220,16 @@
         <v>700</v>
       </c>
       <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
-        <v>3400</v>
-      </c>
       <c r="G52" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+        <v>3500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2123,11 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77900</v>
+        <v>71000</v>
       </c>
       <c r="E54" s="3">
-        <v>86000</v>
+        <v>79700</v>
       </c>
       <c r="F54" s="3">
-        <v>90900</v>
+        <v>88000</v>
       </c>
       <c r="G54" s="3">
-        <v>89600</v>
+        <v>93100</v>
       </c>
       <c r="H54" s="3">
-        <v>60400</v>
+        <v>91800</v>
       </c>
       <c r="I54" s="3">
-        <v>68100</v>
+        <v>61800</v>
       </c>
       <c r="J54" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K54" s="3">
         <v>66100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12200</v>
+        <v>16500</v>
       </c>
       <c r="E57" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="F57" s="3">
-        <v>20800</v>
+        <v>13600</v>
       </c>
       <c r="G57" s="3">
-        <v>20100</v>
+        <v>21300</v>
       </c>
       <c r="H57" s="3">
-        <v>22100</v>
+        <v>20600</v>
       </c>
       <c r="I57" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="J57" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K57" s="3">
         <v>20900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2270,139 +2404,151 @@
         <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>2600</v>
+        <v>4700</v>
       </c>
       <c r="F58" s="3">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="G58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
-        <v>9300</v>
-      </c>
       <c r="I58" s="3">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="J58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K58" s="3">
         <v>11200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20700</v>
+        <v>16100</v>
       </c>
       <c r="E59" s="3">
-        <v>25500</v>
+        <v>21200</v>
       </c>
       <c r="F59" s="3">
-        <v>28300</v>
+        <v>26100</v>
       </c>
       <c r="G59" s="3">
-        <v>42100</v>
+        <v>29000</v>
       </c>
       <c r="H59" s="3">
-        <v>14300</v>
+        <v>43100</v>
       </c>
       <c r="I59" s="3">
-        <v>20000</v>
+        <v>14700</v>
       </c>
       <c r="J59" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K59" s="3">
         <v>18800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="E60" s="3">
-        <v>41400</v>
+        <v>38400</v>
       </c>
       <c r="F60" s="3">
-        <v>50600</v>
+        <v>42400</v>
       </c>
       <c r="G60" s="3">
-        <v>64300</v>
+        <v>51800</v>
       </c>
       <c r="H60" s="3">
-        <v>45800</v>
+        <v>65800</v>
       </c>
       <c r="I60" s="3">
-        <v>53300</v>
+        <v>46800</v>
       </c>
       <c r="J60" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K60" s="3">
         <v>50800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="E61" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>19100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L61" s="3">
         <v>12000</v>
       </c>
-      <c r="F61" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>21200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2421,23 +2567,26 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="E66" s="3">
-        <v>53600</v>
+        <v>46400</v>
       </c>
       <c r="F66" s="3">
-        <v>65100</v>
+        <v>54800</v>
       </c>
       <c r="G66" s="3">
-        <v>83100</v>
+        <v>66600</v>
       </c>
       <c r="H66" s="3">
-        <v>67200</v>
+        <v>85100</v>
       </c>
       <c r="I66" s="3">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="J66" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K66" s="3">
         <v>54800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-145500</v>
+        <v>-157700</v>
       </c>
       <c r="E72" s="3">
-        <v>-143800</v>
+        <v>-148900</v>
       </c>
       <c r="F72" s="3">
-        <v>-126500</v>
+        <v>-147200</v>
       </c>
       <c r="G72" s="3">
-        <v>-134400</v>
+        <v>-129500</v>
       </c>
       <c r="H72" s="3">
-        <v>-99500</v>
+        <v>-137600</v>
       </c>
       <c r="I72" s="3">
-        <v>-91900</v>
+        <v>-101900</v>
       </c>
       <c r="J72" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-79000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32600</v>
+        <v>26100</v>
       </c>
       <c r="E76" s="3">
-        <v>32400</v>
+        <v>33300</v>
       </c>
       <c r="F76" s="3">
-        <v>25800</v>
+        <v>33200</v>
       </c>
       <c r="G76" s="3">
-        <v>6500</v>
+        <v>26400</v>
       </c>
       <c r="H76" s="3">
-        <v>-6900</v>
+        <v>6700</v>
       </c>
       <c r="I76" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-20400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1700</v>
+        <v>-8800</v>
       </c>
       <c r="E81" s="3">
-        <v>-17300</v>
+        <v>-1800</v>
       </c>
       <c r="F81" s="3">
-        <v>7900</v>
+        <v>-17700</v>
       </c>
       <c r="G81" s="3">
-        <v>-42500</v>
+        <v>8100</v>
       </c>
       <c r="H81" s="3">
-        <v>-7600</v>
+        <v>-43500</v>
       </c>
       <c r="I81" s="3">
-        <v>-12800</v>
+        <v>-7800</v>
       </c>
       <c r="J81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3040,34 +3239,37 @@
         <v>1300</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
-        <v>4000</v>
-      </c>
       <c r="H83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
-        <v>2200</v>
-      </c>
       <c r="J83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>800</v>
       </c>
       <c r="L83" s="3">
         <v>800</v>
       </c>
       <c r="M83" s="3">
+        <v>800</v>
+      </c>
+      <c r="N83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="E89" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-3900</v>
-      </c>
       <c r="J89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3300,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -3315,19 +3536,22 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3405,34 +3635,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,63 +3829,69 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
-        <v>6600</v>
-      </c>
       <c r="G100" s="3">
-        <v>42700</v>
+        <v>6700</v>
       </c>
       <c r="H100" s="3">
-        <v>3800</v>
+        <v>43700</v>
       </c>
       <c r="I100" s="3">
-        <v>9800</v>
+        <v>3900</v>
       </c>
       <c r="J100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K100" s="3">
         <v>6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>700</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7200</v>
+        <v>-5600</v>
       </c>
       <c r="E102" s="3">
-        <v>-7700</v>
+        <v>-7300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1800</v>
+        <v>-7800</v>
       </c>
       <c r="G102" s="3">
-        <v>22300</v>
+        <v>-1900</v>
       </c>
       <c r="H102" s="3">
-        <v>-3200</v>
+        <v>22900</v>
       </c>
       <c r="I102" s="3">
-        <v>3700</v>
+        <v>-3300</v>
       </c>
       <c r="J102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>GAME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="E8" s="3">
-        <v>15900</v>
+        <v>12000</v>
       </c>
       <c r="F8" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="G8" s="3">
-        <v>12500</v>
+        <v>15300</v>
       </c>
       <c r="H8" s="3">
-        <v>20700</v>
+        <v>10300</v>
       </c>
       <c r="I8" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="J8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K8" s="3">
         <v>9100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,23 +791,26 @@
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>-4200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,23 +832,26 @@
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>13300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,35 +946,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>-3600</v>
-      </c>
       <c r="F14" s="3">
-        <v>13500</v>
+        <v>-3500</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="H14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -965,48 +985,54 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
-        <v>2600</v>
-      </c>
       <c r="F15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
-        <v>1300</v>
-      </c>
       <c r="H15" s="3">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>800</v>
       </c>
       <c r="M15" s="3">
         <v>800</v>
       </c>
       <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23100</v>
+        <v>19900</v>
       </c>
       <c r="E17" s="3">
-        <v>21700</v>
+        <v>22900</v>
       </c>
       <c r="F17" s="3">
-        <v>37000</v>
+        <v>21500</v>
       </c>
       <c r="G17" s="3">
-        <v>18700</v>
+        <v>36600</v>
       </c>
       <c r="H17" s="3">
-        <v>53400</v>
+        <v>15900</v>
       </c>
       <c r="I17" s="3">
-        <v>21100</v>
+        <v>28800</v>
       </c>
       <c r="J17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K17" s="3">
         <v>21600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10900</v>
+        <v>-8000</v>
       </c>
       <c r="E18" s="3">
-        <v>-5800</v>
+        <v>-10800</v>
       </c>
       <c r="F18" s="3">
-        <v>-21600</v>
+        <v>-5700</v>
       </c>
       <c r="G18" s="3">
-        <v>-6200</v>
+        <v>-21400</v>
       </c>
       <c r="H18" s="3">
-        <v>-32700</v>
+        <v>-5600</v>
       </c>
       <c r="I18" s="3">
-        <v>-11300</v>
+        <v>-18800</v>
       </c>
       <c r="J18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
-        <v>4200</v>
-      </c>
       <c r="G20" s="3">
-        <v>14600</v>
+        <v>4100</v>
       </c>
       <c r="H20" s="3">
-        <v>-7500</v>
+        <v>8400</v>
       </c>
       <c r="I20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J20" s="3">
         <v>6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-16200</v>
-      </c>
       <c r="G21" s="3">
-        <v>9700</v>
+        <v>-16000</v>
       </c>
       <c r="H21" s="3">
-        <v>-36100</v>
+        <v>4100</v>
       </c>
       <c r="I21" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1204,71 +1244,77 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10000</v>
+        <v>-7300</v>
       </c>
       <c r="E23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-17700</v>
-      </c>
       <c r="G23" s="3">
-        <v>8100</v>
+        <v>-17500</v>
       </c>
       <c r="H23" s="3">
-        <v>-41500</v>
+        <v>2600</v>
       </c>
       <c r="I23" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1298,10 +1344,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10000</v>
+        <v>-7300</v>
       </c>
       <c r="E26" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-17700</v>
-      </c>
       <c r="G26" s="3">
-        <v>8100</v>
+        <v>-17500</v>
       </c>
       <c r="H26" s="3">
-        <v>-41500</v>
+        <v>2600</v>
       </c>
       <c r="I26" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10000</v>
+        <v>-7300</v>
       </c>
       <c r="E27" s="3">
-        <v>-2400</v>
+        <v>-9900</v>
       </c>
       <c r="F27" s="3">
-        <v>-17700</v>
+        <v>-2300</v>
       </c>
       <c r="G27" s="3">
-        <v>8100</v>
+        <v>-17500</v>
       </c>
       <c r="H27" s="3">
-        <v>-41400</v>
+        <v>2600</v>
       </c>
       <c r="I27" s="3">
-        <v>-5700</v>
+        <v>-26000</v>
       </c>
       <c r="J27" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,46 +1510,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E29" s="3">
         <v>1200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>600</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2100</v>
       </c>
-      <c r="I29" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G32" s="3">
-        <v>-14600</v>
+        <v>-4100</v>
       </c>
       <c r="H32" s="3">
-        <v>7500</v>
+        <v>-8400</v>
       </c>
       <c r="I32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8800</v>
+        <v>11400</v>
       </c>
       <c r="E33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-17700</v>
-      </c>
       <c r="G33" s="3">
-        <v>8100</v>
+        <v>-17500</v>
       </c>
       <c r="H33" s="3">
-        <v>-43500</v>
+        <v>2000</v>
       </c>
       <c r="I33" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8800</v>
+        <v>11400</v>
       </c>
       <c r="E35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-17700</v>
-      </c>
       <c r="G35" s="3">
-        <v>8100</v>
+        <v>-17500</v>
       </c>
       <c r="H35" s="3">
-        <v>-43500</v>
+        <v>2000</v>
       </c>
       <c r="I35" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7000</v>
+        <v>17700</v>
       </c>
       <c r="E41" s="3">
-        <v>12600</v>
+        <v>6900</v>
       </c>
       <c r="F41" s="3">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="G41" s="3">
-        <v>27800</v>
+        <v>19800</v>
       </c>
       <c r="H41" s="3">
-        <v>29700</v>
+        <v>27600</v>
       </c>
       <c r="I41" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
+        <v>600</v>
+      </c>
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,46 +1959,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12000</v>
+        <v>13300</v>
       </c>
       <c r="E43" s="3">
-        <v>14700</v>
+        <v>11900</v>
       </c>
       <c r="F43" s="3">
-        <v>12700</v>
+        <v>14500</v>
       </c>
       <c r="G43" s="3">
-        <v>11600</v>
+        <v>12600</v>
       </c>
       <c r="H43" s="3">
-        <v>7800</v>
+        <v>11500</v>
       </c>
       <c r="I43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J43" s="3">
         <v>8100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,84 +2041,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>10100</v>
       </c>
       <c r="F45" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="G45" s="3">
-        <v>5400</v>
+        <v>8400</v>
       </c>
       <c r="H45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>800</v>
       </c>
       <c r="N45" s="3">
+        <v>800</v>
+      </c>
+      <c r="O45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29200</v>
+        <v>36300</v>
       </c>
       <c r="E46" s="3">
-        <v>35300</v>
+        <v>28900</v>
       </c>
       <c r="F46" s="3">
-        <v>41200</v>
+        <v>35000</v>
       </c>
       <c r="G46" s="3">
-        <v>44800</v>
+        <v>40800</v>
       </c>
       <c r="H46" s="3">
-        <v>41700</v>
+        <v>44400</v>
       </c>
       <c r="I46" s="3">
-        <v>13900</v>
+        <v>41300</v>
       </c>
       <c r="J46" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K46" s="3">
         <v>15900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2036,107 +2141,116 @@
         <v>3400</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I47" s="3">
         <v>2600</v>
       </c>
       <c r="J47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1200</v>
       </c>
       <c r="L48" s="3">
         <v>1200</v>
       </c>
       <c r="M48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="E49" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="F49" s="3">
-        <v>40400</v>
+        <v>38800</v>
       </c>
       <c r="G49" s="3">
-        <v>41100</v>
+        <v>40000</v>
       </c>
       <c r="H49" s="3">
-        <v>42200</v>
+        <v>40700</v>
       </c>
       <c r="I49" s="3">
-        <v>44100</v>
+        <v>41800</v>
       </c>
       <c r="J49" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K49" s="3">
         <v>49900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,28 +2328,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
-        <v>800</v>
-      </c>
       <c r="F52" s="3">
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2246,11 +2366,14 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71000</v>
+        <v>75600</v>
       </c>
       <c r="E54" s="3">
-        <v>79700</v>
+        <v>70300</v>
       </c>
       <c r="F54" s="3">
-        <v>88000</v>
+        <v>79000</v>
       </c>
       <c r="G54" s="3">
-        <v>93100</v>
+        <v>87200</v>
       </c>
       <c r="H54" s="3">
-        <v>91800</v>
+        <v>92200</v>
       </c>
       <c r="I54" s="3">
-        <v>61800</v>
+        <v>90900</v>
       </c>
       <c r="J54" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K54" s="3">
         <v>69700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="E57" s="3">
-        <v>12500</v>
+        <v>16300</v>
       </c>
       <c r="F57" s="3">
-        <v>13600</v>
+        <v>12400</v>
       </c>
       <c r="G57" s="3">
-        <v>21300</v>
+        <v>13400</v>
       </c>
       <c r="H57" s="3">
-        <v>20600</v>
+        <v>21100</v>
       </c>
       <c r="I57" s="3">
-        <v>22700</v>
+        <v>20400</v>
       </c>
       <c r="J57" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K57" s="3">
         <v>22400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4600</v>
       </c>
-      <c r="E58" s="3">
-        <v>4700</v>
-      </c>
       <c r="F58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
-        <v>1600</v>
-      </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
-        <v>9500</v>
-      </c>
       <c r="J58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K58" s="3">
         <v>11800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16100</v>
+        <v>9900</v>
       </c>
       <c r="E59" s="3">
-        <v>21200</v>
+        <v>16000</v>
       </c>
       <c r="F59" s="3">
-        <v>26100</v>
+        <v>21000</v>
       </c>
       <c r="G59" s="3">
-        <v>29000</v>
+        <v>25900</v>
       </c>
       <c r="H59" s="3">
-        <v>43100</v>
+        <v>28700</v>
       </c>
       <c r="I59" s="3">
-        <v>14700</v>
+        <v>42700</v>
       </c>
       <c r="J59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K59" s="3">
         <v>20400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37200</v>
+        <v>30100</v>
       </c>
       <c r="E60" s="3">
-        <v>38400</v>
+        <v>36900</v>
       </c>
       <c r="F60" s="3">
-        <v>42400</v>
+        <v>38100</v>
       </c>
       <c r="G60" s="3">
-        <v>51800</v>
+        <v>42000</v>
       </c>
       <c r="H60" s="3">
-        <v>65800</v>
+        <v>51400</v>
       </c>
       <c r="I60" s="3">
-        <v>46800</v>
+        <v>65200</v>
       </c>
       <c r="J60" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K60" s="3">
         <v>54600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="F61" s="3">
-        <v>12300</v>
+        <v>7700</v>
       </c>
       <c r="G61" s="3">
-        <v>14600</v>
+        <v>12200</v>
       </c>
       <c r="H61" s="3">
-        <v>19100</v>
+        <v>14500</v>
       </c>
       <c r="I61" s="3">
-        <v>21700</v>
+        <v>18900</v>
       </c>
       <c r="J61" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K61" s="3">
         <v>14800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44900</v>
+        <v>37100</v>
       </c>
       <c r="E66" s="3">
-        <v>46400</v>
+        <v>44400</v>
       </c>
       <c r="F66" s="3">
+        <v>46000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>54300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>84300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>69600</v>
+      </c>
+      <c r="L66" s="3">
         <v>54800</v>
       </c>
-      <c r="G66" s="3">
-        <v>66600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>85100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>68800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>69600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>54800</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-157700</v>
+        <v>-144900</v>
       </c>
       <c r="E72" s="3">
-        <v>-148900</v>
+        <v>-156300</v>
       </c>
       <c r="F72" s="3">
-        <v>-147200</v>
+        <v>-147600</v>
       </c>
       <c r="G72" s="3">
-        <v>-129500</v>
+        <v>-145800</v>
       </c>
       <c r="H72" s="3">
-        <v>-137600</v>
+        <v>-128300</v>
       </c>
       <c r="I72" s="3">
-        <v>-101900</v>
+        <v>-136300</v>
       </c>
       <c r="J72" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-94000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26100</v>
+        <v>38600</v>
       </c>
       <c r="E76" s="3">
-        <v>33300</v>
+        <v>25900</v>
       </c>
       <c r="F76" s="3">
-        <v>33200</v>
+        <v>33000</v>
       </c>
       <c r="G76" s="3">
-        <v>26400</v>
+        <v>32900</v>
       </c>
       <c r="H76" s="3">
-        <v>6700</v>
+        <v>26200</v>
       </c>
       <c r="I76" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-7000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-20400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8800</v>
+        <v>11400</v>
       </c>
       <c r="E81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-17700</v>
-      </c>
       <c r="G81" s="3">
-        <v>8100</v>
+        <v>-17500</v>
       </c>
       <c r="H81" s="3">
-        <v>-43500</v>
+        <v>2000</v>
       </c>
       <c r="I81" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
-        <v>1400</v>
-      </c>
       <c r="F83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
-        <v>4100</v>
-      </c>
       <c r="I83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>800</v>
       </c>
       <c r="M83" s="3">
         <v>800</v>
       </c>
       <c r="N83" s="3">
+        <v>800</v>
+      </c>
+      <c r="O83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5600</v>
+        <v>-6800</v>
       </c>
       <c r="E89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-9500</v>
       </c>
       <c r="G89" s="3">
         <v>-9400</v>
       </c>
       <c r="H89" s="3">
-        <v>-20800</v>
+        <v>-9300</v>
       </c>
       <c r="I89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,34 +3745,37 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,60 +4087,63 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6700</v>
       </c>
-      <c r="H100" s="3">
-        <v>43700</v>
-      </c>
       <c r="I100" s="3">
+        <v>39400</v>
+      </c>
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
-        <v>22900</v>
-      </c>
       <c r="I102" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -733,25 +733,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="E8" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="F8" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="G8" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="H8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9700</v>
       </c>
       <c r="K8" s="3">
         <v>9100</v>
@@ -955,22 +955,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E14" s="3">
         <v>-1100</v>
       </c>
       <c r="F14" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G14" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E15" s="3">
         <v>1200</v>
       </c>
       <c r="F15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H15" s="3">
         <v>1000</v>
       </c>
       <c r="I15" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J15" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K15" s="3">
         <v>1900</v>
@@ -1051,25 +1051,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19900</v>
+        <v>20500</v>
       </c>
       <c r="E17" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="F17" s="3">
-        <v>21500</v>
+        <v>22100</v>
       </c>
       <c r="G17" s="3">
-        <v>36600</v>
+        <v>37800</v>
       </c>
       <c r="H17" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="I17" s="3">
-        <v>28800</v>
+        <v>29600</v>
       </c>
       <c r="J17" s="3">
-        <v>20900</v>
+        <v>21600</v>
       </c>
       <c r="K17" s="3">
         <v>21600</v>
@@ -1092,25 +1092,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="E18" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="F18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I18" s="3">
-        <v>-18800</v>
+        <v>-19400</v>
       </c>
       <c r="J18" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="K18" s="3">
         <v>-12400</v>
@@ -1156,19 +1156,19 @@
         <v>1300</v>
       </c>
       <c r="F20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H20" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="I20" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="J20" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="K20" s="3">
         <v>1600</v>
@@ -1191,25 +1191,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="E21" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="F21" s="3">
         <v>-700</v>
       </c>
       <c r="G21" s="3">
-        <v>-16000</v>
+        <v>-16500</v>
       </c>
       <c r="H21" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I21" s="3">
-        <v>-23300</v>
+        <v>-24000</v>
       </c>
       <c r="J21" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="K21" s="3">
         <v>-8600</v>
@@ -1247,7 +1247,7 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
@@ -1273,25 +1273,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="E23" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="F23" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G23" s="3">
-        <v>-17500</v>
+        <v>-18100</v>
       </c>
       <c r="H23" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I23" s="3">
-        <v>-26000</v>
+        <v>-26800</v>
       </c>
       <c r="J23" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="K23" s="3">
         <v>-11300</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="E26" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G26" s="3">
-        <v>-17500</v>
+        <v>-18100</v>
       </c>
       <c r="H26" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I26" s="3">
-        <v>-26000</v>
+        <v>-26800</v>
       </c>
       <c r="J26" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="K26" s="3">
         <v>-11300</v>
@@ -1437,25 +1437,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="E27" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="F27" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G27" s="3">
-        <v>-17500</v>
+        <v>-18100</v>
       </c>
       <c r="H27" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I27" s="3">
-        <v>-26000</v>
+        <v>-26800</v>
       </c>
       <c r="J27" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="K27" s="3">
         <v>-11300</v>
@@ -1519,10 +1519,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="E29" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F29" s="3">
         <v>600</v>
@@ -1537,7 +1537,7 @@
         <v>-2500</v>
       </c>
       <c r="J29" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K29" s="3">
         <v>-1800</v>
@@ -1648,19 +1648,19 @@
         <v>-1300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="H32" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="I32" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J32" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="K32" s="3">
         <v>-1600</v>
@@ -1683,25 +1683,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E33" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="F33" s="3">
         <v>-1800</v>
       </c>
       <c r="G33" s="3">
-        <v>-17500</v>
+        <v>-18000</v>
       </c>
       <c r="H33" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I33" s="3">
-        <v>-28500</v>
+        <v>-29300</v>
       </c>
       <c r="J33" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="K33" s="3">
         <v>-13100</v>
@@ -1765,25 +1765,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E35" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="F35" s="3">
         <v>-1800</v>
       </c>
       <c r="G35" s="3">
-        <v>-17500</v>
+        <v>-18000</v>
       </c>
       <c r="H35" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I35" s="3">
-        <v>-28500</v>
+        <v>-29300</v>
       </c>
       <c r="J35" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="K35" s="3">
         <v>-13100</v>
@@ -1886,25 +1886,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="E41" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F41" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G41" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="H41" s="3">
-        <v>27600</v>
+        <v>28400</v>
       </c>
       <c r="I41" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="J41" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K41" s="3">
         <v>6800</v>
@@ -1968,25 +1968,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="E43" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="F43" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="G43" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="H43" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="I43" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="J43" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K43" s="3">
         <v>6500</v>
@@ -2050,25 +2050,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E45" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="F45" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="G45" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="H45" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="I45" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
@@ -2091,25 +2091,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36300</v>
+        <v>37500</v>
       </c>
       <c r="E46" s="3">
-        <v>28900</v>
+        <v>29800</v>
       </c>
       <c r="F46" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="G46" s="3">
-        <v>40800</v>
+        <v>42000</v>
       </c>
       <c r="H46" s="3">
-        <v>44400</v>
+        <v>45700</v>
       </c>
       <c r="I46" s="3">
-        <v>41300</v>
+        <v>42600</v>
       </c>
       <c r="J46" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="K46" s="3">
         <v>15900</v>
@@ -2132,22 +2132,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E47" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F47" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G47" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J47" s="3">
         <v>2600</v>
@@ -2176,13 +2176,13 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
@@ -2214,25 +2214,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35600</v>
+        <v>36700</v>
       </c>
       <c r="E49" s="3">
-        <v>36600</v>
+        <v>37700</v>
       </c>
       <c r="F49" s="3">
-        <v>38800</v>
+        <v>39900</v>
       </c>
       <c r="G49" s="3">
-        <v>40000</v>
+        <v>41300</v>
       </c>
       <c r="H49" s="3">
-        <v>40700</v>
+        <v>41900</v>
       </c>
       <c r="I49" s="3">
-        <v>41800</v>
+        <v>43100</v>
       </c>
       <c r="J49" s="3">
-        <v>43700</v>
+        <v>45000</v>
       </c>
       <c r="K49" s="3">
         <v>49900</v>
@@ -2343,16 +2343,16 @@
         <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2419,25 +2419,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75600</v>
+        <v>78000</v>
       </c>
       <c r="E54" s="3">
-        <v>70300</v>
+        <v>72500</v>
       </c>
       <c r="F54" s="3">
-        <v>79000</v>
+        <v>81400</v>
       </c>
       <c r="G54" s="3">
-        <v>87200</v>
+        <v>89800</v>
       </c>
       <c r="H54" s="3">
-        <v>92200</v>
+        <v>95000</v>
       </c>
       <c r="I54" s="3">
-        <v>90900</v>
+        <v>93700</v>
       </c>
       <c r="J54" s="3">
-        <v>61200</v>
+        <v>63100</v>
       </c>
       <c r="K54" s="3">
         <v>69700</v>
@@ -2494,25 +2494,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="E57" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="F57" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="G57" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="H57" s="3">
-        <v>21100</v>
+        <v>21800</v>
       </c>
       <c r="I57" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="J57" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="K57" s="3">
         <v>22400</v>
@@ -2535,25 +2535,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
-        <v>4600</v>
-      </c>
       <c r="F58" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G58" s="3">
         <v>2700</v>
       </c>
       <c r="H58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J58" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="K58" s="3">
         <v>11800</v>
@@ -2576,25 +2576,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="E59" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="F59" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="G59" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="H59" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="I59" s="3">
-        <v>42700</v>
+        <v>44000</v>
       </c>
       <c r="J59" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="K59" s="3">
         <v>20400</v>
@@ -2617,25 +2617,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="E60" s="3">
-        <v>36900</v>
+        <v>38000</v>
       </c>
       <c r="F60" s="3">
-        <v>38100</v>
+        <v>39200</v>
       </c>
       <c r="G60" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="H60" s="3">
-        <v>51400</v>
+        <v>52900</v>
       </c>
       <c r="I60" s="3">
-        <v>65200</v>
+        <v>67200</v>
       </c>
       <c r="J60" s="3">
-        <v>46400</v>
+        <v>47800</v>
       </c>
       <c r="K60" s="3">
         <v>54600</v>
@@ -2658,25 +2658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="E61" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F61" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G61" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="H61" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="I61" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="J61" s="3">
-        <v>21500</v>
+        <v>22200</v>
       </c>
       <c r="K61" s="3">
         <v>14800</v>
@@ -2863,25 +2863,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37100</v>
+        <v>38200</v>
       </c>
       <c r="E66" s="3">
-        <v>44400</v>
+        <v>45800</v>
       </c>
       <c r="F66" s="3">
-        <v>46000</v>
+        <v>47400</v>
       </c>
       <c r="G66" s="3">
-        <v>54300</v>
+        <v>56000</v>
       </c>
       <c r="H66" s="3">
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="I66" s="3">
-        <v>84300</v>
+        <v>86900</v>
       </c>
       <c r="J66" s="3">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="K66" s="3">
         <v>69600</v>
@@ -3085,25 +3085,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-144900</v>
+        <v>-149300</v>
       </c>
       <c r="E72" s="3">
-        <v>-156300</v>
+        <v>-161000</v>
       </c>
       <c r="F72" s="3">
-        <v>-147600</v>
+        <v>-152000</v>
       </c>
       <c r="G72" s="3">
-        <v>-145800</v>
+        <v>-150200</v>
       </c>
       <c r="H72" s="3">
-        <v>-128300</v>
+        <v>-132200</v>
       </c>
       <c r="I72" s="3">
-        <v>-136300</v>
+        <v>-140500</v>
       </c>
       <c r="J72" s="3">
-        <v>-100900</v>
+        <v>-104000</v>
       </c>
       <c r="K72" s="3">
         <v>-94000</v>
@@ -3249,25 +3249,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38600</v>
+        <v>39700</v>
       </c>
       <c r="E76" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="F76" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="G76" s="3">
-        <v>32900</v>
+        <v>33900</v>
       </c>
       <c r="H76" s="3">
-        <v>26200</v>
+        <v>27000</v>
       </c>
       <c r="I76" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J76" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
@@ -3377,25 +3377,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E81" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="F81" s="3">
         <v>-1800</v>
       </c>
       <c r="G81" s="3">
-        <v>-17500</v>
+        <v>-18000</v>
       </c>
       <c r="H81" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I81" s="3">
-        <v>-28500</v>
+        <v>-29300</v>
       </c>
       <c r="J81" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="K81" s="3">
         <v>-13100</v>
@@ -3438,13 +3438,13 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>1300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1200</v>
       </c>
       <c r="H83" s="3">
         <v>1300</v>
@@ -3453,7 +3453,7 @@
         <v>2000</v>
       </c>
       <c r="J83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K83" s="3">
         <v>2300</v>
@@ -3681,25 +3681,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="E89" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="F89" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="G89" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="H89" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="I89" s="3">
-        <v>-13500</v>
+        <v>-13900</v>
       </c>
       <c r="J89" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="K89" s="3">
         <v>-4000</v>
@@ -3862,7 +3862,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>1200</v>
       </c>
       <c r="H100" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="I100" s="3">
-        <v>39400</v>
+        <v>40600</v>
       </c>
       <c r="J100" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K100" s="3">
         <v>10000</v>
@@ -4166,25 +4166,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="E102" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="F102" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="G102" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="H102" s="3">
         <v>-1900</v>
       </c>
       <c r="I102" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="J102" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="K102" s="3">
         <v>3800</v>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>GAME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,124 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12300</v>
+        <v>14200</v>
       </c>
       <c r="E8" s="3">
-        <v>12400</v>
+        <v>15800</v>
       </c>
       <c r="F8" s="3">
-        <v>16200</v>
+        <v>12700</v>
       </c>
       <c r="G8" s="3">
-        <v>15700</v>
+        <v>12900</v>
       </c>
       <c r="H8" s="3">
-        <v>10700</v>
+        <v>16900</v>
       </c>
       <c r="I8" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K8" s="3">
         <v>10300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,23 +807,29 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>-4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,23 +854,29 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>13300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,90 +982,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>13800</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="I14" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
         <v>1100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2600</v>
       </c>
       <c r="G15" s="3">
         <v>1300</v>
       </c>
       <c r="H15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20500</v>
+        <v>21300</v>
       </c>
       <c r="E17" s="3">
-        <v>23600</v>
+        <v>18400</v>
       </c>
       <c r="F17" s="3">
-        <v>22100</v>
+        <v>21300</v>
       </c>
       <c r="G17" s="3">
-        <v>37800</v>
+        <v>24500</v>
       </c>
       <c r="H17" s="3">
-        <v>16400</v>
+        <v>23000</v>
       </c>
       <c r="I17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K17" s="3">
         <v>29600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>21600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>21600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8200</v>
+        <v>-7100</v>
       </c>
       <c r="E18" s="3">
-        <v>-11200</v>
+        <v>-2600</v>
       </c>
       <c r="F18" s="3">
-        <v>-5900</v>
+        <v>-8500</v>
       </c>
       <c r="G18" s="3">
-        <v>-22000</v>
+        <v>-11600</v>
       </c>
       <c r="H18" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="I18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,98 +1209,112 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4300</v>
-      </c>
       <c r="H20" s="3">
-        <v>8700</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6100</v>
+        <v>-6900</v>
       </c>
       <c r="E21" s="3">
-        <v>-8500</v>
+        <v>-3100</v>
       </c>
       <c r="F21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4300</v>
-      </c>
       <c r="I21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-24000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-12000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1247,74 +1326,86 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="E23" s="3">
-        <v>-10200</v>
+        <v>-4300</v>
       </c>
       <c r="F23" s="3">
-        <v>-2400</v>
+        <v>-7800</v>
       </c>
       <c r="G23" s="3">
-        <v>-18100</v>
+        <v>-10500</v>
       </c>
       <c r="H23" s="3">
-        <v>2700</v>
+        <v>-2500</v>
       </c>
       <c r="I23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1347,10 +1438,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="E26" s="3">
-        <v>-10200</v>
+        <v>-4300</v>
       </c>
       <c r="F26" s="3">
-        <v>-2400</v>
+        <v>-7800</v>
       </c>
       <c r="G26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-18100</v>
       </c>
-      <c r="H26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-26800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-18100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="E27" s="3">
-        <v>-10200</v>
+        <v>-4300</v>
       </c>
       <c r="F27" s="3">
-        <v>-2400</v>
+        <v>-7800</v>
       </c>
       <c r="G27" s="3">
-        <v>-18100</v>
+        <v>-10600</v>
       </c>
       <c r="H27" s="3">
-        <v>2700</v>
+        <v>-2500</v>
       </c>
       <c r="I27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-13200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,49 +1628,61 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>19300</v>
+        <v>200</v>
       </c>
       <c r="E29" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G29" s="3">
         <v>1300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>600</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="J29" s="3">
         <v>-600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-2500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-2200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-1800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-1700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-1400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-2600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-8700</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11700</v>
+        <v>-7400</v>
       </c>
       <c r="E33" s="3">
-        <v>-9000</v>
+        <v>-21000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1800</v>
+        <v>12200</v>
       </c>
       <c r="G33" s="3">
-        <v>-18000</v>
+        <v>-9300</v>
       </c>
       <c r="H33" s="3">
-        <v>2100</v>
+        <v>-1900</v>
       </c>
       <c r="I33" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-29300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-10300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11700</v>
+        <v>-7400</v>
       </c>
       <c r="E35" s="3">
-        <v>-9000</v>
+        <v>-21000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1800</v>
+        <v>12200</v>
       </c>
       <c r="G35" s="3">
-        <v>-18000</v>
+        <v>-9300</v>
       </c>
       <c r="H35" s="3">
-        <v>2100</v>
+        <v>-1900</v>
       </c>
       <c r="I35" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-29300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-10300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18200</v>
+        <v>9500</v>
       </c>
       <c r="E41" s="3">
-        <v>7100</v>
+        <v>11900</v>
       </c>
       <c r="F41" s="3">
-        <v>12900</v>
+        <v>18900</v>
       </c>
       <c r="G41" s="3">
-        <v>20400</v>
+        <v>7400</v>
       </c>
       <c r="H41" s="3">
-        <v>28400</v>
+        <v>13400</v>
       </c>
       <c r="I41" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2141,61 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="E43" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J43" s="3">
         <v>12300</v>
       </c>
-      <c r="F43" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>8000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>8300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,213 +2235,249 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5500</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>10400</v>
+        <v>5000</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="G45" s="3">
-        <v>8700</v>
+        <v>10800</v>
       </c>
       <c r="H45" s="3">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="I45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37500</v>
+        <v>27000</v>
       </c>
       <c r="E46" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="F46" s="3">
-        <v>36000</v>
+        <v>38900</v>
       </c>
       <c r="G46" s="3">
-        <v>42000</v>
+        <v>30900</v>
       </c>
       <c r="H46" s="3">
-        <v>45700</v>
+        <v>37400</v>
       </c>
       <c r="I46" s="3">
+        <v>43600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K46" s="3">
         <v>42600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E47" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F47" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G47" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="I47" s="3">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="J47" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K47" s="3">
         <v>2700</v>
       </c>
       <c r="L47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N47" s="3">
         <v>3200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
-        <v>1200</v>
-      </c>
       <c r="K48" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1200</v>
       </c>
       <c r="M48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36700</v>
+        <v>24300</v>
       </c>
       <c r="E49" s="3">
-        <v>37700</v>
+        <v>24700</v>
       </c>
       <c r="F49" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="G49" s="3">
-        <v>41300</v>
+        <v>39200</v>
       </c>
       <c r="H49" s="3">
-        <v>41900</v>
+        <v>41500</v>
       </c>
       <c r="I49" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K49" s="3">
         <v>43100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>45000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>49900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>47100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,25 +2579,25 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
@@ -2369,11 +2608,17 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78000</v>
+        <v>55000</v>
       </c>
       <c r="E54" s="3">
-        <v>72500</v>
+        <v>59000</v>
       </c>
       <c r="F54" s="3">
-        <v>81400</v>
+        <v>80900</v>
       </c>
       <c r="G54" s="3">
-        <v>89800</v>
+        <v>75200</v>
       </c>
       <c r="H54" s="3">
-        <v>95000</v>
+        <v>84500</v>
       </c>
       <c r="I54" s="3">
+        <v>93300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>98600</v>
+      </c>
+      <c r="K54" s="3">
         <v>93700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>63100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>69700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>66100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,213 +2747,245 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16000</v>
+        <v>19600</v>
       </c>
       <c r="E57" s="3">
-        <v>16800</v>
+        <v>17700</v>
       </c>
       <c r="F57" s="3">
-        <v>12800</v>
+        <v>16600</v>
       </c>
       <c r="G57" s="3">
-        <v>13900</v>
+        <v>17500</v>
       </c>
       <c r="H57" s="3">
-        <v>21800</v>
+        <v>13300</v>
       </c>
       <c r="I57" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K57" s="3">
         <v>21000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>23100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>22400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>20900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>4700</v>
       </c>
       <c r="F58" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="G58" s="3">
-        <v>2700</v>
+        <v>4900</v>
       </c>
       <c r="H58" s="3">
-        <v>1600</v>
+        <v>4900</v>
       </c>
       <c r="I58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10200</v>
+        <v>7900</v>
       </c>
       <c r="E59" s="3">
-        <v>16400</v>
+        <v>7800</v>
       </c>
       <c r="F59" s="3">
-        <v>21700</v>
+        <v>10600</v>
       </c>
       <c r="G59" s="3">
-        <v>26700</v>
+        <v>17100</v>
       </c>
       <c r="H59" s="3">
-        <v>29600</v>
+        <v>22500</v>
       </c>
       <c r="I59" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K59" s="3">
         <v>44000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="E60" s="3">
-        <v>38000</v>
+        <v>30200</v>
       </c>
       <c r="F60" s="3">
-        <v>39200</v>
+        <v>32200</v>
       </c>
       <c r="G60" s="3">
-        <v>43300</v>
+        <v>39400</v>
       </c>
       <c r="H60" s="3">
-        <v>52900</v>
+        <v>40700</v>
       </c>
       <c r="I60" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K60" s="3">
         <v>67200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>47800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>54600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>50800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7200</v>
+        <v>9000</v>
       </c>
       <c r="E61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F61" s="3">
         <v>7500</v>
       </c>
-      <c r="F61" s="3">
-        <v>7900</v>
-      </c>
       <c r="G61" s="3">
-        <v>12500</v>
+        <v>7800</v>
       </c>
       <c r="H61" s="3">
-        <v>14900</v>
+        <v>8200</v>
       </c>
       <c r="I61" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K61" s="3">
         <v>19500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>22200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>12000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>16100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2723,19 +3014,25 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38200</v>
+        <v>38500</v>
       </c>
       <c r="E66" s="3">
-        <v>45800</v>
+        <v>37100</v>
       </c>
       <c r="F66" s="3">
-        <v>47400</v>
+        <v>39700</v>
       </c>
       <c r="G66" s="3">
-        <v>56000</v>
+        <v>47500</v>
       </c>
       <c r="H66" s="3">
-        <v>68000</v>
+        <v>49200</v>
       </c>
       <c r="I66" s="3">
+        <v>58100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K66" s="3">
         <v>86900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>70300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>69600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>54800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>32500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>31400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-149300</v>
+        <v>-183400</v>
       </c>
       <c r="E72" s="3">
-        <v>-161000</v>
+        <v>-176000</v>
       </c>
       <c r="F72" s="3">
-        <v>-152000</v>
+        <v>-155000</v>
       </c>
       <c r="G72" s="3">
-        <v>-150200</v>
+        <v>-167200</v>
       </c>
       <c r="H72" s="3">
-        <v>-132200</v>
+        <v>-157900</v>
       </c>
       <c r="I72" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-140500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-104000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-94000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-79000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-64100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-61300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39700</v>
+        <v>16500</v>
       </c>
       <c r="E76" s="3">
-        <v>26700</v>
+        <v>22000</v>
       </c>
       <c r="F76" s="3">
-        <v>34000</v>
+        <v>41300</v>
       </c>
       <c r="G76" s="3">
-        <v>33900</v>
+        <v>27700</v>
       </c>
       <c r="H76" s="3">
-        <v>27000</v>
+        <v>35300</v>
       </c>
       <c r="I76" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K76" s="3">
         <v>6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-7200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-16400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-20400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11700</v>
+        <v>-7400</v>
       </c>
       <c r="E81" s="3">
-        <v>-9000</v>
+        <v>-21000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1800</v>
+        <v>12200</v>
       </c>
       <c r="G81" s="3">
-        <v>-18000</v>
+        <v>-9300</v>
       </c>
       <c r="H81" s="3">
-        <v>2100</v>
+        <v>-1900</v>
       </c>
       <c r="I81" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-29300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-10300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7000</v>
+        <v>-2000</v>
       </c>
       <c r="E89" s="3">
-        <v>-5700</v>
+        <v>-7300</v>
       </c>
       <c r="F89" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="G89" s="3">
-        <v>-9700</v>
+        <v>-5900</v>
       </c>
       <c r="H89" s="3">
-        <v>-9600</v>
+        <v>-7700</v>
       </c>
       <c r="I89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-13900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,34 +4189,40 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,78 +4563,90 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>6900</v>
-      </c>
       <c r="I100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K100" s="3">
         <v>40600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11100</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-5800</v>
+        <v>-7000</v>
       </c>
       <c r="F102" s="3">
-        <v>-7500</v>
+        <v>11500</v>
       </c>
       <c r="G102" s="3">
-        <v>-8000</v>
+        <v>-6000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1900</v>
+        <v>-7800</v>
       </c>
       <c r="I102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K102" s="3">
         <v>26700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>GAME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14200</v>
+        <v>12000</v>
       </c>
       <c r="E8" s="3">
-        <v>15800</v>
+        <v>13900</v>
       </c>
       <c r="F8" s="3">
-        <v>12700</v>
+        <v>15400</v>
       </c>
       <c r="G8" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="H8" s="3">
-        <v>16900</v>
+        <v>12600</v>
       </c>
       <c r="I8" s="3">
-        <v>15100</v>
+        <v>16500</v>
       </c>
       <c r="J8" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,23 +820,26 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>-4200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,23 +870,26 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>13300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,44 +1005,47 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-3800</v>
-      </c>
       <c r="I14" s="3">
-        <v>14300</v>
+        <v>-3700</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1033,57 +1053,63 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1900</v>
       </c>
       <c r="M15" s="3">
         <v>1900</v>
       </c>
       <c r="N15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O15" s="3">
         <v>1100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>800</v>
       </c>
       <c r="P15" s="3">
         <v>800</v>
       </c>
       <c r="Q15" s="3">
+        <v>800</v>
+      </c>
+      <c r="R15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="E17" s="3">
-        <v>18400</v>
+        <v>20800</v>
       </c>
       <c r="F17" s="3">
-        <v>21300</v>
+        <v>18000</v>
       </c>
       <c r="G17" s="3">
-        <v>24500</v>
+        <v>20800</v>
       </c>
       <c r="H17" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="I17" s="3">
-        <v>24300</v>
+        <v>22400</v>
       </c>
       <c r="J17" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K17" s="3">
         <v>17000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>21600</v>
       </c>
       <c r="M17" s="3">
         <v>21600</v>
       </c>
       <c r="N17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7100</v>
+        <v>-9200</v>
       </c>
       <c r="E18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-8500</v>
-      </c>
       <c r="G18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-11600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,93 +1254,99 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1600</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
-        <v>1100</v>
+        <v>-1500</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6900</v>
+        <v>-9000</v>
       </c>
       <c r="E21" s="3">
-        <v>-3100</v>
+        <v>-6800</v>
       </c>
       <c r="F21" s="3">
-        <v>-6300</v>
+        <v>-3000</v>
       </c>
       <c r="G21" s="3">
-        <v>-8800</v>
+        <v>-6200</v>
       </c>
       <c r="H21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
-        <v>-4600</v>
-      </c>
       <c r="J21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,10 +1354,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1326,81 +1366,87 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>500</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-26800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,10 +1490,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-7600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-26800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-7600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2500</v>
+        <v>-10400</v>
       </c>
       <c r="I27" s="3">
-        <v>-6100</v>
+        <v>-2400</v>
       </c>
       <c r="J27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,55 +1692,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
         <v>200</v>
       </c>
-      <c r="E29" s="3">
-        <v>-16700</v>
-      </c>
       <c r="F29" s="3">
-        <v>20000</v>
+        <v>-16300</v>
       </c>
       <c r="G29" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H29" s="3">
         <v>1300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
-        <v>-14600</v>
-      </c>
       <c r="J29" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1854,99 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1100</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7400</v>
+        <v>-9900</v>
       </c>
       <c r="E33" s="3">
-        <v>-21000</v>
+        <v>-7200</v>
       </c>
       <c r="F33" s="3">
-        <v>12200</v>
+        <v>-20500</v>
       </c>
       <c r="G33" s="3">
-        <v>-9300</v>
+        <v>11900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1900</v>
+        <v>-9100</v>
       </c>
       <c r="I33" s="3">
-        <v>-20700</v>
+        <v>-1800</v>
       </c>
       <c r="J33" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7400</v>
+        <v>-9900</v>
       </c>
       <c r="E35" s="3">
-        <v>-21000</v>
+        <v>-7200</v>
       </c>
       <c r="F35" s="3">
-        <v>12200</v>
+        <v>-20500</v>
       </c>
       <c r="G35" s="3">
-        <v>-9300</v>
+        <v>11900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1900</v>
+        <v>-9100</v>
       </c>
       <c r="I35" s="3">
-        <v>-20700</v>
+        <v>-1800</v>
       </c>
       <c r="J35" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="E41" s="3">
-        <v>11900</v>
+        <v>9200</v>
       </c>
       <c r="F41" s="3">
-        <v>18900</v>
+        <v>11600</v>
       </c>
       <c r="G41" s="3">
-        <v>7400</v>
+        <v>18500</v>
       </c>
       <c r="H41" s="3">
-        <v>13400</v>
+        <v>7200</v>
       </c>
       <c r="I41" s="3">
-        <v>21200</v>
+        <v>13100</v>
       </c>
       <c r="J41" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K41" s="3">
         <v>29500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14300</v>
+        <v>9800</v>
       </c>
       <c r="E43" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="F43" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="G43" s="3">
-        <v>12700</v>
+        <v>13900</v>
       </c>
       <c r="H43" s="3">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="I43" s="3">
-        <v>13400</v>
+        <v>15200</v>
       </c>
       <c r="J43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
-        <v>5000</v>
-      </c>
       <c r="F45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="G45" s="3">
-        <v>10800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>5700</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>800</v>
       </c>
       <c r="Q45" s="3">
+        <v>800</v>
+      </c>
+      <c r="R45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27000</v>
+        <v>15600</v>
       </c>
       <c r="E46" s="3">
-        <v>30500</v>
+        <v>26300</v>
       </c>
       <c r="F46" s="3">
-        <v>38900</v>
+        <v>29800</v>
       </c>
       <c r="G46" s="3">
-        <v>30900</v>
+        <v>38000</v>
       </c>
       <c r="H46" s="3">
-        <v>37400</v>
+        <v>30200</v>
       </c>
       <c r="I46" s="3">
-        <v>43600</v>
+        <v>36500</v>
       </c>
       <c r="J46" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K46" s="3">
         <v>47500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2359,31 +2464,34 @@
         <v>3600</v>
       </c>
       <c r="J47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2394,90 +2502,96 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1100</v>
       </c>
       <c r="K48" s="3">
         <v>1100</v>
       </c>
       <c r="L48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1200</v>
       </c>
       <c r="O48" s="3">
         <v>1200</v>
       </c>
       <c r="P48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24300</v>
+        <v>23300</v>
       </c>
       <c r="E49" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="F49" s="3">
-        <v>38100</v>
+        <v>24100</v>
       </c>
       <c r="G49" s="3">
-        <v>39200</v>
+        <v>37200</v>
       </c>
       <c r="H49" s="3">
-        <v>41500</v>
+        <v>38200</v>
       </c>
       <c r="I49" s="3">
-        <v>42800</v>
+        <v>40500</v>
       </c>
       <c r="J49" s="3">
+        <v>41800</v>
+      </c>
+      <c r="K49" s="3">
         <v>43500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>47100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2585,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
@@ -2614,11 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55000</v>
+        <v>42600</v>
       </c>
       <c r="E54" s="3">
-        <v>59000</v>
+        <v>53700</v>
       </c>
       <c r="F54" s="3">
-        <v>80900</v>
+        <v>57600</v>
       </c>
       <c r="G54" s="3">
-        <v>75200</v>
+        <v>79000</v>
       </c>
       <c r="H54" s="3">
-        <v>84500</v>
+        <v>73400</v>
       </c>
       <c r="I54" s="3">
-        <v>93300</v>
+        <v>82500</v>
       </c>
       <c r="J54" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K54" s="3">
         <v>98600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,243 +2879,259 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19600</v>
+        <v>14900</v>
       </c>
       <c r="E57" s="3">
-        <v>17700</v>
+        <v>19100</v>
       </c>
       <c r="F57" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="G57" s="3">
-        <v>17500</v>
+        <v>16200</v>
       </c>
       <c r="H57" s="3">
-        <v>13300</v>
+        <v>17100</v>
       </c>
       <c r="I57" s="3">
-        <v>14400</v>
+        <v>13000</v>
       </c>
       <c r="J57" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K57" s="3">
         <v>22600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
-        <v>4700</v>
-      </c>
       <c r="F58" s="3">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="G58" s="3">
         <v>4900</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7900</v>
+        <v>8700</v>
       </c>
       <c r="E59" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>7600</v>
       </c>
       <c r="G59" s="3">
-        <v>17100</v>
+        <v>10300</v>
       </c>
       <c r="H59" s="3">
-        <v>22500</v>
+        <v>16700</v>
       </c>
       <c r="I59" s="3">
-        <v>27700</v>
+        <v>22000</v>
       </c>
       <c r="J59" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K59" s="3">
         <v>30700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F60" s="3">
         <v>29500</v>
       </c>
-      <c r="E60" s="3">
-        <v>30200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>32200</v>
-      </c>
       <c r="G60" s="3">
-        <v>39400</v>
+        <v>31500</v>
       </c>
       <c r="H60" s="3">
-        <v>40700</v>
+        <v>38500</v>
       </c>
       <c r="I60" s="3">
-        <v>44900</v>
+        <v>39800</v>
       </c>
       <c r="J60" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K60" s="3">
         <v>54900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9000</v>
+        <v>3100</v>
       </c>
       <c r="E61" s="3">
-        <v>6900</v>
+        <v>8800</v>
       </c>
       <c r="F61" s="3">
-        <v>7500</v>
+        <v>6700</v>
       </c>
       <c r="G61" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="H61" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="I61" s="3">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="J61" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K61" s="3">
         <v>15500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3020,19 +3166,22 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38500</v>
+        <v>35400</v>
       </c>
       <c r="E66" s="3">
-        <v>37100</v>
+        <v>37600</v>
       </c>
       <c r="F66" s="3">
-        <v>39700</v>
+        <v>36200</v>
       </c>
       <c r="G66" s="3">
-        <v>47500</v>
+        <v>38700</v>
       </c>
       <c r="H66" s="3">
-        <v>49200</v>
+        <v>46400</v>
       </c>
       <c r="I66" s="3">
-        <v>58100</v>
+        <v>48000</v>
       </c>
       <c r="J66" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K66" s="3">
         <v>70600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-183400</v>
+        <v>-189000</v>
       </c>
       <c r="E72" s="3">
-        <v>-176000</v>
+        <v>-179100</v>
       </c>
       <c r="F72" s="3">
-        <v>-155000</v>
+        <v>-171800</v>
       </c>
       <c r="G72" s="3">
-        <v>-167200</v>
+        <v>-151300</v>
       </c>
       <c r="H72" s="3">
-        <v>-157900</v>
+        <v>-163200</v>
       </c>
       <c r="I72" s="3">
-        <v>-156000</v>
+        <v>-154100</v>
       </c>
       <c r="J72" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-137300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-140500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-104000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-94000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16500</v>
+        <v>7200</v>
       </c>
       <c r="E76" s="3">
-        <v>22000</v>
+        <v>16100</v>
       </c>
       <c r="F76" s="3">
-        <v>41300</v>
+        <v>21400</v>
       </c>
       <c r="G76" s="3">
-        <v>27700</v>
+        <v>40300</v>
       </c>
       <c r="H76" s="3">
-        <v>35300</v>
+        <v>27000</v>
       </c>
       <c r="I76" s="3">
-        <v>35200</v>
+        <v>34500</v>
       </c>
       <c r="J76" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K76" s="3">
         <v>28000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7400</v>
+        <v>-9900</v>
       </c>
       <c r="E81" s="3">
-        <v>-21000</v>
+        <v>-7200</v>
       </c>
       <c r="F81" s="3">
-        <v>12200</v>
+        <v>-20500</v>
       </c>
       <c r="G81" s="3">
-        <v>-9300</v>
+        <v>11900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1900</v>
+        <v>-9100</v>
       </c>
       <c r="I81" s="3">
-        <v>-20700</v>
+        <v>-1800</v>
       </c>
       <c r="J81" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,46 +4034,49 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
-        <v>1200</v>
-      </c>
       <c r="G83" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1400</v>
       </c>
       <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>800</v>
       </c>
       <c r="P83" s="3">
         <v>800</v>
       </c>
       <c r="Q83" s="3">
+        <v>800</v>
+      </c>
+      <c r="R83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2000</v>
+        <v>-5300</v>
       </c>
       <c r="E89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,34 +4416,37 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4327,43 +4557,46 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>18200</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -4587,69 +4833,72 @@
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>40600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-7000</v>
-      </c>
       <c r="F102" s="3">
-        <v>11500</v>
+        <v>-6900</v>
       </c>
       <c r="G102" s="3">
-        <v>-6000</v>
+        <v>11300</v>
       </c>
       <c r="H102" s="3">
-        <v>-7800</v>
+        <v>-5800</v>
       </c>
       <c r="I102" s="3">
-        <v>-8300</v>
+        <v>-7600</v>
       </c>
       <c r="J102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>GAME</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E8" s="3">
         <v>12000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>13700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -823,28 +830,31 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>-4200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>5400</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -873,23 +883,26 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>13300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,47 +1025,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>5100</v>
+        <v>200</v>
       </c>
       <c r="G14" s="3">
-        <v>-2200</v>
+        <v>5200</v>
       </c>
       <c r="H14" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="I14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J14" s="3">
         <v>-3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1056,60 +1076,66 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1900</v>
       </c>
       <c r="N15" s="3">
         <v>1900</v>
       </c>
       <c r="O15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P15" s="3">
         <v>1100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>800</v>
       </c>
       <c r="Q15" s="3">
         <v>800</v>
       </c>
       <c r="R15" s="3">
+        <v>800</v>
+      </c>
+      <c r="S15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E17" s="3">
         <v>21200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H17" s="3">
         <v>20800</v>
       </c>
-      <c r="F17" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23900</v>
       </c>
-      <c r="I17" s="3">
-        <v>22400</v>
-      </c>
       <c r="J17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K17" s="3">
         <v>23700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>21600</v>
       </c>
       <c r="N17" s="3">
         <v>21600</v>
       </c>
       <c r="O17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,122 +1278,129 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>200</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1369,84 +1409,90 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,10 +1539,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1704,49 +1765,52 @@
         <v>-200</v>
       </c>
       <c r="E29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-16300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>19500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>1300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-14200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
-        <v>9200</v>
-      </c>
       <c r="F41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G41" s="3">
         <v>11600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E43" s="3">
         <v>9800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,113 +2436,122 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>800</v>
       </c>
       <c r="Q45" s="3">
         <v>800</v>
       </c>
       <c r="R45" s="3">
+        <v>800</v>
+      </c>
+      <c r="S45" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E46" s="3">
         <v>15600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>38000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>42600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="E47" s="3">
         <v>3600</v>
@@ -2467,36 +2572,39 @@
         <v>3600</v>
       </c>
       <c r="K47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L47" s="3">
         <v>2800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>6700</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2505,93 +2613,99 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
       </c>
       <c r="M48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1200</v>
       </c>
       <c r="P48" s="3">
         <v>1200</v>
       </c>
       <c r="Q48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E49" s="3">
         <v>23300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>23700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>37200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>40500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>41800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2807,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2708,23 +2828,23 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2737,11 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E54" s="3">
         <v>42600</v>
       </c>
-      <c r="E54" s="3">
-        <v>53700</v>
-      </c>
       <c r="F54" s="3">
-        <v>57600</v>
+        <v>53800</v>
       </c>
       <c r="G54" s="3">
-        <v>79000</v>
+        <v>57700</v>
       </c>
       <c r="H54" s="3">
-        <v>73400</v>
+        <v>79100</v>
       </c>
       <c r="I54" s="3">
-        <v>82500</v>
+        <v>73500</v>
       </c>
       <c r="J54" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K54" s="3">
         <v>91100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,281 +3010,297 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E57" s="3">
         <v>14900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19100</v>
       </c>
-      <c r="F57" s="3">
-        <v>17200</v>
-      </c>
       <c r="G57" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H57" s="3">
         <v>16200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E58" s="3">
         <v>8600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4800</v>
       </c>
       <c r="I58" s="3">
         <v>4800</v>
       </c>
       <c r="J58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
-        <v>7700</v>
-      </c>
       <c r="F59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
-        <v>10300</v>
-      </c>
       <c r="H59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I59" s="3">
         <v>16700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>27000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E60" s="3">
         <v>32200</v>
       </c>
-      <c r="E60" s="3">
-        <v>28800</v>
-      </c>
       <c r="F60" s="3">
+        <v>28900</v>
+      </c>
+      <c r="G60" s="3">
         <v>29500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>43900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3169,19 +3315,22 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E66" s="3">
         <v>35400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36200</v>
       </c>
-      <c r="G66" s="3">
-        <v>38700</v>
-      </c>
       <c r="H66" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I66" s="3">
         <v>46400</v>
       </c>
-      <c r="I66" s="3">
-        <v>48000</v>
-      </c>
       <c r="J66" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K66" s="3">
         <v>56800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>69600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-189000</v>
+        <v>-66700</v>
       </c>
       <c r="E72" s="3">
-        <v>-179100</v>
+        <v>-189100</v>
       </c>
       <c r="F72" s="3">
-        <v>-171800</v>
+        <v>-179200</v>
       </c>
       <c r="G72" s="3">
-        <v>-151300</v>
+        <v>-171900</v>
       </c>
       <c r="H72" s="3">
-        <v>-163200</v>
+        <v>-151400</v>
       </c>
       <c r="I72" s="3">
-        <v>-154100</v>
+        <v>-163300</v>
       </c>
       <c r="J72" s="3">
+        <v>-154200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-152300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-137300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-140500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-104000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-94000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7200</v>
+        <v>52400</v>
       </c>
       <c r="E76" s="3">
-        <v>16100</v>
+        <v>7300</v>
       </c>
       <c r="F76" s="3">
-        <v>21400</v>
+        <v>16200</v>
       </c>
       <c r="G76" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H76" s="3">
         <v>40300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-20400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
       </c>
       <c r="H83" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1400</v>
       </c>
       <c r="J83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>800</v>
       </c>
       <c r="Q83" s="3">
         <v>800</v>
       </c>
       <c r="R83" s="3">
+        <v>800</v>
+      </c>
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-7100</v>
       </c>
       <c r="G89" s="3">
         <v>-7100</v>
       </c>
       <c r="H89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4419,34 +4640,37 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,13 +4772,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>15200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4560,43 +4790,46 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>18200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,19 +5058,22 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -4836,72 +5082,75 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>40600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>5</v>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAME_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19200</v>
+        <v>19500</v>
       </c>
       <c r="E8" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="F8" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="G8" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="H8" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="I8" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="J8" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="K8" s="3">
         <v>14700</v>
@@ -801,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -1043,7 +1043,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H14" s="3">
         <v>-900</v>
@@ -1052,7 +1052,7 @@
         <v>-600</v>
       </c>
       <c r="J14" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K14" s="3">
         <v>14000</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="E17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F17" s="3">
         <v>21200</v>
       </c>
-      <c r="F17" s="3">
-        <v>20900</v>
-      </c>
       <c r="G17" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="H17" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="I17" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="J17" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="K17" s="3">
         <v>23700</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E18" s="3">
-        <v>-9200</v>
+        <v>-9300</v>
       </c>
       <c r="F18" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="G18" s="3">
         <v>-2600</v>
       </c>
       <c r="H18" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="I18" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="J18" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="K18" s="3">
         <v>-9000</v>
@@ -1297,7 +1297,7 @@
         <v>-1500</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="3">
         <v>1300</v>
@@ -1338,22 +1338,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="E21" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="F21" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="G21" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H21" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="I21" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="J21" s="3">
         <v>-700</v>
@@ -1444,22 +1444,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E23" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="F23" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G23" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H23" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="I23" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="J23" s="3">
         <v>-2400</v>
@@ -1603,22 +1603,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E26" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="F26" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G26" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H26" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="I26" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="J26" s="3">
         <v>-2400</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E27" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="F27" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G27" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H27" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="I27" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="J27" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K27" s="3">
         <v>-6000</v>
@@ -1765,16 +1765,16 @@
         <v>-200</v>
       </c>
       <c r="E29" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F29" s="3">
         <v>200</v>
       </c>
       <c r="G29" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="H29" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="I29" s="3">
         <v>1300</v>
@@ -1933,7 +1933,7 @@
         <v>1500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I32" s="3">
         <v>-1300</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E33" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="F33" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="G33" s="3">
-        <v>-20500</v>
+        <v>-20900</v>
       </c>
       <c r="H33" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="I33" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="J33" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K33" s="3">
         <v>-20200</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E35" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="F35" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="G35" s="3">
-        <v>-20500</v>
+        <v>-20900</v>
       </c>
       <c r="H35" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="I35" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="J35" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K35" s="3">
         <v>-20200</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E41" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F41" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G41" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="H41" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="I41" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J41" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="K41" s="3">
         <v>20700</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="E43" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F43" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="G43" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="H43" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="I43" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="J43" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="K43" s="3">
         <v>13100</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="3">
         <v>3200</v>
       </c>
       <c r="G45" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I45" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="J45" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="K45" s="3">
         <v>8800</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28400</v>
+        <v>28900</v>
       </c>
       <c r="E46" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="F46" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="G46" s="3">
-        <v>29800</v>
+        <v>30300</v>
       </c>
       <c r="H46" s="3">
-        <v>38000</v>
+        <v>38700</v>
       </c>
       <c r="I46" s="3">
-        <v>30200</v>
+        <v>30800</v>
       </c>
       <c r="J46" s="3">
-        <v>36500</v>
+        <v>37200</v>
       </c>
       <c r="K46" s="3">
         <v>42600</v>
@@ -2551,7 +2551,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
         <v>3600</v>
@@ -2604,7 +2604,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>63400</v>
+        <v>64600</v>
       </c>
       <c r="E49" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="F49" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="G49" s="3">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="H49" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="I49" s="3">
-        <v>38200</v>
+        <v>39000</v>
       </c>
       <c r="J49" s="3">
-        <v>40500</v>
+        <v>41300</v>
       </c>
       <c r="K49" s="3">
         <v>41800</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>102800</v>
+        <v>104700</v>
       </c>
       <c r="E54" s="3">
-        <v>42600</v>
+        <v>43400</v>
       </c>
       <c r="F54" s="3">
-        <v>53800</v>
+        <v>54800</v>
       </c>
       <c r="G54" s="3">
-        <v>57700</v>
+        <v>58700</v>
       </c>
       <c r="H54" s="3">
-        <v>79100</v>
+        <v>80500</v>
       </c>
       <c r="I54" s="3">
-        <v>73500</v>
+        <v>74800</v>
       </c>
       <c r="J54" s="3">
-        <v>82600</v>
+        <v>84100</v>
       </c>
       <c r="K54" s="3">
         <v>91100</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="E57" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="F57" s="3">
-        <v>19100</v>
+        <v>19500</v>
       </c>
       <c r="G57" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="H57" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="I57" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="J57" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="K57" s="3">
         <v>14000</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="E58" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F58" s="3">
         <v>2000</v>
       </c>
       <c r="G58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H58" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I58" s="3">
         <v>4800</v>
       </c>
       <c r="J58" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K58" s="3">
         <v>2800</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="E59" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F59" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G59" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H59" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="I59" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="J59" s="3">
-        <v>22000</v>
+        <v>22400</v>
       </c>
       <c r="K59" s="3">
         <v>27000</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="E60" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="F60" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="G60" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="H60" s="3">
-        <v>31500</v>
+        <v>32100</v>
       </c>
       <c r="I60" s="3">
-        <v>38500</v>
+        <v>39200</v>
       </c>
       <c r="J60" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="K60" s="3">
         <v>43900</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E61" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F61" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="G61" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H61" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="I61" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="J61" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K61" s="3">
         <v>12700</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50400</v>
+        <v>51300</v>
       </c>
       <c r="E66" s="3">
-        <v>35400</v>
+        <v>36000</v>
       </c>
       <c r="F66" s="3">
-        <v>37600</v>
+        <v>38300</v>
       </c>
       <c r="G66" s="3">
-        <v>36200</v>
+        <v>36900</v>
       </c>
       <c r="H66" s="3">
-        <v>38800</v>
+        <v>39500</v>
       </c>
       <c r="I66" s="3">
-        <v>46400</v>
+        <v>47300</v>
       </c>
       <c r="J66" s="3">
-        <v>48100</v>
+        <v>48900</v>
       </c>
       <c r="K66" s="3">
         <v>56800</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-66700</v>
+        <v>-67900</v>
       </c>
       <c r="E72" s="3">
-        <v>-189100</v>
+        <v>-192600</v>
       </c>
       <c r="F72" s="3">
-        <v>-179200</v>
+        <v>-182500</v>
       </c>
       <c r="G72" s="3">
-        <v>-171900</v>
+        <v>-175100</v>
       </c>
       <c r="H72" s="3">
-        <v>-151400</v>
+        <v>-154200</v>
       </c>
       <c r="I72" s="3">
-        <v>-163300</v>
+        <v>-166300</v>
       </c>
       <c r="J72" s="3">
-        <v>-154200</v>
+        <v>-157000</v>
       </c>
       <c r="K72" s="3">
         <v>-152300</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52400</v>
+        <v>53400</v>
       </c>
       <c r="E76" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F76" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="G76" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="H76" s="3">
-        <v>40300</v>
+        <v>41000</v>
       </c>
       <c r="I76" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="J76" s="3">
-        <v>34500</v>
+        <v>35200</v>
       </c>
       <c r="K76" s="3">
         <v>34300</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E81" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="F81" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="G81" s="3">
-        <v>-20500</v>
+        <v>-20900</v>
       </c>
       <c r="H81" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="I81" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="J81" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K81" s="3">
         <v>-20200</v>
@@ -4548,25 +4548,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="E89" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="H89" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="I89" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="J89" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="K89" s="3">
         <v>-9800</v>
@@ -4781,7 +4781,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>18200</v>
+        <v>18600</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5173,25 +5173,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E102" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F102" s="3">
         <v>-2400</v>
       </c>
       <c r="G102" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H102" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="I102" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="J102" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="K102" s="3">
         <v>-8100</v>
